--- a/Files/MMLU Files/MMLU_results.xlsx
+++ b/Files/MMLU Files/MMLU_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47bc981eb124341c/Ambiente de Trabalho/TESE_2024/DATASETS TESE/DATASET_ANSWERS/MMLU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="11_2D69FDCE8F79A8D366075C52F3D742368447A3B9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E636916-E889-4026-805B-CB2B10BB7EC0}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="11_2D69FDCE8F79A8D366075C52F3D742368447A3B9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D1D231F-E7F3-4065-A747-62C9BCF9A743}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2120" yWindow="2120" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Analysis" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>Subject</t>
   </si>
@@ -156,6 +156,15 @@
   <si>
     <t>p (for GPT-4)</t>
   </si>
+  <si>
+    <t>test statistic</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
 </sst>
 </file>
 
@@ -163,9 +172,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.00000%"/>
-    <numFmt numFmtId="172" formatCode="0.000000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="167" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -560,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,6 +664,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,20 +694,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2503,6 +2529,1553 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B896D2D4-9F7A-452D-A210-8066D3180C12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="2965450"/>
+              <a:ext cx="10274300" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑣𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&lt;</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡𝑒𝑠𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>:</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+ </m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:rad>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>~</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(0,1), </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢𝑛𝑑𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0 </m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5, </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B896D2D4-9F7A-452D-A210-8066D3180C12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="2965450"/>
+              <a:ext cx="10274300" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2  𝑣𝑠 𝐻_1: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&lt;𝜇_2, 𝑤ℎ𝑒𝑟𝑒 𝜇_1  𝑖𝑠 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝜇_2 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−4.</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡𝑒𝑠𝑡 𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐:𝑧=  (𝜇_1−𝜇_2)/√((𝜎_1^2)/𝑛_1 + (𝜎_2^2)/𝑛_2 )  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>~</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑁(0,1), 𝑢𝑛𝑑𝑒𝑟 𝐻_(0 ) 𝑤ℎ𝑒𝑟𝑒 𝜎_1 𝑖𝑠 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5, 𝜎_2 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−4 𝑎𝑛𝑑 𝑛_1 𝑎𝑛𝑑 𝑛_2  𝑡ℎ𝑒 𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠 𝑖𝑛 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝐺𝑃𝑇−4 𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦.</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2795,7 +4368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D3" workbookViewId="0">
       <selection activeCell="G11" sqref="G11:G16"/>
     </sheetView>
   </sheetViews>
@@ -3072,11 +4645,11 @@
       <c r="F11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="52">
         <f>(H2-G2)/G2</f>
         <v>0.2777777777777779</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="54">
         <f>(H7-G7)/G7</f>
         <v>0.28174603174603158</v>
       </c>
@@ -3085,7 +4658,7 @@
       <c r="F12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="52">
         <f>(H3-G3)/G3</f>
         <v>0.19999999999999996</v>
       </c>
@@ -3094,7 +4667,7 @@
       <c r="F13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="52">
         <f>(H4-G4)/G4</f>
         <v>0.24444444444444446</v>
       </c>
@@ -3103,7 +4676,7 @@
       <c r="F14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="52">
         <f>(H5-G5)/G5</f>
         <v>0.69047619047619035</v>
       </c>
@@ -3112,7 +4685,7 @@
       <c r="F15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="53">
         <f>(H6-G6)/G6</f>
         <v>0.10606060606060615</v>
       </c>
@@ -3121,7 +4694,7 @@
       <c r="F16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="53">
         <f>AVERAGE(G11:G15)</f>
         <v>0.30375180375180377</v>
       </c>
@@ -3220,16 +4793,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C4F919-34ED-4F19-85D6-674CA4017EFE}">
-  <dimension ref="B8:N39"/>
+  <dimension ref="B8:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7265625" customWidth="1"/>
     <col min="12" max="12" width="10.6328125" customWidth="1"/>
     <col min="13" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
@@ -3240,36 +4817,36 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="49" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="61"/>
+      <c r="G9" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="49" t="s">
+      <c r="H9" s="61"/>
+      <c r="I9" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="49" t="s">
+      <c r="J9" s="61"/>
+      <c r="K9" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="45" t="s">
+      <c r="L9" s="61"/>
+      <c r="M9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="46"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="48"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="39" t="s">
         <v>27</v>
       </c>
@@ -3352,51 +4929,51 @@
       <c r="B12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="46">
         <f>'General Analysis'!C2/'General Analysis'!B2</f>
         <v>0.6</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="47">
         <f>'General Analysis'!D2/'General Analysis'!B2</f>
         <v>0.76666666666666672</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="46">
         <f>'General Analysis'!C3/'General Analysis'!B3</f>
         <v>0.5</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="47">
         <f>'General Analysis'!D3/'General Analysis'!B3</f>
         <v>0.6</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="46">
         <f>'General Analysis'!C4/'General Analysis'!B4</f>
         <v>0.5</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="47">
         <f>'General Analysis'!D4/'General Analysis'!B4</f>
         <v>0.62222222222222223</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="46">
         <f>'General Analysis'!C5/'General Analysis'!B5</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="47">
         <f>'General Analysis'!D5/'General Analysis'!B5</f>
         <v>0.78888888888888886</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="46">
         <f>'General Analysis'!C6/'General Analysis'!B6</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="47">
         <f>'General Analysis'!D6/'General Analysis'!B6</f>
         <v>0.81111111111111112</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="46">
         <f>'General Analysis'!C7/'General Analysis'!B7</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="N12" s="53">
+      <c r="N12" s="48">
         <f>'General Analysis'!D7/'General Analysis'!B7</f>
         <v>0.71777777777777774</v>
       </c>
@@ -3458,51 +5035,51 @@
       <c r="B14" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="46">
         <f>C11*C12*(1-C12)</f>
         <v>21.6</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="47">
         <f t="shared" ref="D14:N14" si="1">D11*D12*(1-D12)</f>
         <v>16.099999999999998</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="46">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="47">
         <f t="shared" si="1"/>
         <v>21.6</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="46">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="47">
         <f t="shared" si="1"/>
         <v>21.155555555555555</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="46">
         <f t="shared" si="1"/>
         <v>22.4</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="47">
         <f t="shared" si="1"/>
         <v>14.988888888888891</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="46">
         <f t="shared" si="1"/>
         <v>17.600000000000005</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="47">
         <f t="shared" si="1"/>
         <v>13.788888888888888</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="46">
         <f t="shared" si="1"/>
         <v>110.88</v>
       </c>
-      <c r="N14" s="53">
+      <c r="N14" s="48">
         <f t="shared" si="1"/>
         <v>91.157777777777795</v>
       </c>
@@ -3511,331 +5088,160 @@
       <c r="B15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="49">
         <f>SQRT(C14)</f>
         <v>4.6475800154489004</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="50">
         <f t="shared" ref="D15:N15" si="2">SQRT(D14)</f>
         <v>4.0124805295477755</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="49">
         <f t="shared" si="2"/>
         <v>4.7434164902525691</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="50">
         <f t="shared" si="2"/>
         <v>4.6475800154489004</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="49">
         <f t="shared" si="2"/>
         <v>4.7434164902525691</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="50">
         <f t="shared" si="2"/>
         <v>4.5995168828427575</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="49">
         <f t="shared" si="2"/>
         <v>4.7328638264796927</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="50">
         <f t="shared" si="2"/>
         <v>3.8715486421958967</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="49">
         <f t="shared" si="2"/>
         <v>4.1952353926806065</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="50">
         <f t="shared" si="2"/>
         <v>3.7133393177689658</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="49">
         <f t="shared" si="2"/>
         <v>10.529957264870546</v>
       </c>
-      <c r="N15" s="56">
+      <c r="N15" s="51">
         <f t="shared" si="2"/>
         <v>9.5476582352835493</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s">
-        <v>35</v>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>90</v>
-      </c>
-      <c r="E28">
-        <v>0.6</v>
-      </c>
-      <c r="F28">
-        <v>54</v>
-      </c>
-      <c r="G28">
-        <v>21.6</v>
-      </c>
-      <c r="H28">
-        <v>4.6475800154489004</v>
+      <c r="C31" s="46">
+        <f>(C13-D13)/SQRT((C14/C11)+(D14/D11))</f>
+        <v>-23.176179118107214</v>
+      </c>
+      <c r="D31">
+        <f>_xlfn.NORM.S.DIST(C31,TRUE)</f>
+        <v>3.9593114935941308E-119</v>
+      </c>
+      <c r="E31">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>90</v>
-      </c>
-      <c r="E29">
-        <v>0.76666666666666672</v>
-      </c>
-      <c r="F29">
-        <v>69</v>
-      </c>
-      <c r="G29">
-        <v>16.099999999999998</v>
-      </c>
-      <c r="H29">
-        <v>4.0124805295477755</v>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="46">
+        <f>(E13-F13)/SQRT((E14/E11)+(F14/F11))</f>
+        <v>-12.857142857142858</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D36" si="3">_xlfn.NORM.S.DIST(C32,TRUE)</f>
+        <v>3.9211059391074005E-38</v>
+      </c>
+      <c r="E32">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>90</v>
-      </c>
-      <c r="E30">
-        <v>0.5</v>
-      </c>
-      <c r="F30">
-        <v>45</v>
-      </c>
-      <c r="G30">
-        <v>22.5</v>
-      </c>
-      <c r="H30">
-        <v>4.7434164902525691</v>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="46">
+        <f>(G13-H13)/SQRT((G14/G11)+(H14/H11))</f>
+        <v>-15.794074425831173</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>1.7088642785656869E-56</v>
+      </c>
+      <c r="E33">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31">
-        <v>90</v>
-      </c>
-      <c r="E31">
-        <v>0.6</v>
-      </c>
-      <c r="F31">
-        <v>54</v>
-      </c>
-      <c r="G31">
-        <v>21.6</v>
-      </c>
-      <c r="H31">
-        <v>4.6475800154489004</v>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="46">
+        <f>(I13-J13)/SQRT((I14/I11)+(J14/J11))</f>
+        <v>-44.993313024704889</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32">
-        <v>90</v>
-      </c>
-      <c r="E32">
-        <v>0.5</v>
-      </c>
-      <c r="F32">
-        <v>45</v>
-      </c>
-      <c r="G32">
-        <v>22.5</v>
-      </c>
-      <c r="H32">
-        <v>4.7434164902525691</v>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="46">
+        <f>(K13-L13)/SQRT((K14/K11)+(L14/L11))</f>
+        <v>-11.853082941633327</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>1.0370846863933694E-32</v>
+      </c>
+      <c r="E35">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33">
-        <v>90</v>
-      </c>
-      <c r="E33">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="F33">
-        <v>56</v>
-      </c>
-      <c r="G33">
-        <v>21.155555555555555</v>
-      </c>
-      <c r="H33">
-        <v>4.5995168828427575</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34">
-        <v>90</v>
-      </c>
-      <c r="E34">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="F34">
-        <v>42</v>
-      </c>
-      <c r="G34">
-        <v>22.4</v>
-      </c>
-      <c r="H34">
-        <v>4.7328638264796927</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35">
-        <v>90</v>
-      </c>
-      <c r="E35">
-        <v>0.78888888888888886</v>
-      </c>
-      <c r="F35">
-        <v>71</v>
-      </c>
-      <c r="G35">
-        <v>14.988888888888891</v>
-      </c>
-      <c r="H35">
-        <v>3.8715486421958967</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="46">
+        <f>(M13-N13)/SQRT((M14/M11)+(N14/N11))</f>
+        <v>-105.96155282455564</v>
       </c>
       <c r="D36">
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="F36">
-        <v>66</v>
-      </c>
-      <c r="G36">
-        <v>17.600000000000005</v>
-      </c>
-      <c r="H36">
-        <v>4.1952353926806065</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37">
-        <v>90</v>
-      </c>
-      <c r="E37">
-        <v>0.81111111111111112</v>
-      </c>
-      <c r="F37">
-        <v>73</v>
-      </c>
-      <c r="G37">
-        <v>13.788888888888888</v>
-      </c>
-      <c r="H37">
-        <v>3.7133393177689658</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38">
-        <v>450</v>
-      </c>
-      <c r="E38">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F38">
-        <v>252.00000000000003</v>
-      </c>
-      <c r="G38">
-        <v>110.88</v>
-      </c>
-      <c r="H38">
-        <v>10.529957264870546</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39">
-        <v>450</v>
-      </c>
-      <c r="E39">
-        <v>0.71777777777777774</v>
-      </c>
-      <c r="F39">
-        <v>323</v>
-      </c>
-      <c r="G39">
-        <v>91.157777777777795</v>
-      </c>
-      <c r="H39">
-        <v>9.5476582352835493</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -3848,6 +5254,11 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
   </mergeCells>
+  <conditionalFormatting sqref="D31:D36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$31</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
